--- a/Парфюмерия.xlsx
+++ b/Парфюмерия.xlsx
@@ -4801,7 +4801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -5236,43 +5236,432 @@
       <c r="AR3" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dilis Unique Sunny Туалетная вода 100 мл</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 088  </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 690 </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>215973958</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Парфюмерия.xlsx
+++ b/Парфюмерия.xlsx
@@ -38,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,6 +85,13 @@
       <b val="1"/>
       <color rgb="FFFDFDFD"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="9">
@@ -183,10 +190,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -201,11 +209,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -234,8 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -939,27 +952,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11" customWidth="1" style="11" min="1" max="1"/>
-    <col width="19" customWidth="1" style="11" min="2" max="2"/>
-    <col width="10" customWidth="1" style="11" min="3" max="6"/>
+    <col width="11" customWidth="1" style="13" min="1" max="1"/>
+    <col width="19" customWidth="1" style="13" min="2" max="2"/>
+    <col width="10" customWidth="1" style="13" min="3" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.95" customHeight="1" s="11">
-      <c r="A1" s="13" t="inlineStr">
+    <row r="1" ht="25.95" customHeight="1" s="13">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Как работать с шаблоном</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>Скачивайте шаблоны в личном кабинете</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="48" customHeight="1" s="11">
-      <c r="A3" s="10" t="inlineStr">
+    <row r="3" ht="48" customHeight="1" s="13">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Перед каждой загрузкой скачивайте новый шаблон в личном кабинете. Мы регулярно обновляем шаблоны,  чтобы они были максимально точными и удобными. 
 Не используйте старые шаблоны и файлы, полученные из других источников.</t>
@@ -967,93 +980,93 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Не меняйте структуру файла</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Не добавляйте и не удаляйте листы и столбцы. Не меняйте порядок столбцов и не скрывайте их.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Правильно заполняйте строки</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>Для каждого артикула используйте отдельную строку. Например:</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>Название</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Размер</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Кольцо «Романтика»</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="A10" s="12" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Кольцо «Романтика»</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Заполните нужные поля</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="199.95" customHeight="1" s="11">
-      <c r="A12" s="10" t="inlineStr">
+    <row r="12" ht="199.95" customHeight="1" s="13">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> – Заполните блок Название и цены, если вы знаете, что товар уже есть на Ozon. Укажите Ozon ID — по нему система сама найдет товар и добавит его в ваш каталог. Чтобы узнать Ozon ID, на странице Товары → Управление товарами, выберите нужные и скачайте их в XLS. В файле будет столбец Ozon ID. Если вам неудобно указывать Ozon ID, заполните блоки Название и цены  и Информация о товаре. Система попробует по ним найти товар. Если получится, товар автоматически добавится в каталог, иначе — вы увидите ошибку в разделе История импорта. 
 – Заполните все блоки, если товара еще нет на Ozon. Укажите максимальное количество характеристик. Они используются при поиске и фильтрации по параметрам. Чем подробнее вы опишете товар, тем чаще покупатели будут его находить. Кроме того, товары с подробными характеристиками больше привлекают покупателей. Укажите значения для обязательных полей в тех блоках, которые заполняете (такие поля выделены красным). 
@@ -1062,46 +1075,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="inlineStr">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Не меняйте тип значений</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>В шаблонах есть поля нескольких видов, не меняйте их и заполняйте правильно:</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>• Выбор из списка</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="160.05" customHeight="1" s="11">
-      <c r="A16" s="10" t="inlineStr">
+    <row r="16" ht="160.05" customHeight="1" s="13">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>Когда вы нажмете на ячейку, рядом с ней появится значок стрелки и подсказка «Выберите значение из списка». 
 Нажмите на стрелку и выберите подходящее значение. Не вписывайте значение вручную. Примеры полей: Тип, НДС.
 Чтобы выбрать несколько значений из списка:
     1. Нажмите на стрелку и посмотрите доступные значения. Например, в поле Цвет есть значения: белый, голубой, зеленый.
-    2. В любой свободной ячейке запишите все нужные значения через точку с запятой. Значения нужно записать так же</t>
+    2. В любой свободной ячейке запишите все нужные значения через точку с запятой. Значения нужно записать так ж</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>• Число</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="45" customHeight="1" s="11">
-      <c r="A18" s="10" t="inlineStr">
+    <row r="18" ht="45" customHeight="1" s="13">
+      <c r="A18" s="12" t="inlineStr">
         <is>
           <t>Когда вы нажмете на ячейку, рядом с ней появится подсказка «Введите значение от 0 до 9999». 
 Или эта информация может быть в подсказке над полем. В такие поля вписывайте только числа, без единиц измерения. 
@@ -1110,28 +1123,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="inlineStr">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">• Текст						</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1" s="11">
-      <c r="A20" s="10" t="inlineStr">
+    <row r="20" ht="30" customHeight="1" s="13">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>В таких полях пишите информацию, которая нужна для параметров. Примеры полей: Название товара, Бренд, Подробное описание.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Не пропускайте листы</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="58.05" customHeight="1" s="11">
-      <c r="A22" s="10" t="inlineStr">
+    <row r="22" ht="58.05" customHeight="1" s="13">
+      <c r="A22" s="12" t="inlineStr">
         <is>
           <t>В шаблонах бывает несколько листов — заполните их. Какие бывают листы:
 - Видеоролик — на нем можно разместить ссылки на видео о товаре.
@@ -1140,14 +1153,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="A23" s="17" t="inlineStr">
         <is>
           <t>Как объединить товары в одну карточку</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="58.05" customHeight="1" s="11">
-      <c r="A24" s="10" t="inlineStr">
+    <row r="24" ht="58.05" customHeight="1" s="13">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>Чтобы объединить товары в одну карточку, заполните одинаковыми значениями поля: «Тип», «Бренд» и «Объединить в одну карточку», а также заполните поля, выделенные желтым цветом, — для каждого товара в них должны быть указаны разные значения.
 Чтобы правильно объединить товары, ознакомьтесь с инструкциями в разделе «Помощи»:</t>
@@ -1155,7 +1168,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>• Как объединить товары в одну карточку</t>
         </is>
@@ -1188,8 +1201,8 @@
     <mergeCell ref="C9"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B8"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A19:H19"/>
@@ -4801,38 +4814,38 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.6640625" customWidth="1" style="11" min="1" max="1"/>
-    <col width="16" customWidth="1" style="17" min="2" max="2"/>
-    <col width="47" customWidth="1" style="11" min="3" max="3"/>
-    <col width="27" customWidth="1" style="17" min="4" max="4"/>
-    <col width="27" customWidth="1" style="11" min="5" max="5"/>
-    <col width="27" customWidth="1" style="17" min="6" max="6"/>
-    <col width="27" customWidth="1" style="11" min="7" max="7"/>
-    <col width="27" customWidth="1" style="17" min="8" max="8"/>
-    <col width="27" customWidth="1" style="11" min="9" max="9"/>
-    <col width="27" customWidth="1" style="17" min="10" max="14"/>
-    <col width="27" customWidth="1" style="11" min="15" max="17"/>
-    <col width="27" customWidth="1" style="17" min="18" max="21"/>
-    <col width="27" customWidth="1" style="11" min="22" max="22"/>
-    <col width="27" customWidth="1" style="17" min="23" max="25"/>
-    <col width="27" customWidth="1" style="11" min="26" max="44"/>
+    <col width="5.6640625" customWidth="1" style="13" min="1" max="1"/>
+    <col width="16" customWidth="1" style="19" min="2" max="2"/>
+    <col width="47" customWidth="1" style="13" min="3" max="3"/>
+    <col width="27" customWidth="1" style="19" min="4" max="4"/>
+    <col width="27" customWidth="1" style="13" min="5" max="5"/>
+    <col width="27" customWidth="1" style="19" min="6" max="6"/>
+    <col width="27" customWidth="1" style="13" min="7" max="7"/>
+    <col width="27" customWidth="1" style="19" min="8" max="8"/>
+    <col width="27" customWidth="1" style="13" min="9" max="9"/>
+    <col width="27" customWidth="1" style="19" min="10" max="14"/>
+    <col width="27" customWidth="1" style="13" min="15" max="17"/>
+    <col width="27" customWidth="1" style="19" min="18" max="21"/>
+    <col width="27" customWidth="1" style="13" min="22" max="22"/>
+    <col width="27" customWidth="1" style="19" min="23" max="25"/>
+    <col width="27" customWidth="1" style="13" min="26" max="44"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.5" customHeight="1" s="11">
+    <row r="1" ht="61.5" customHeight="1" s="13">
       <c r="A1" s="5" t="n"/>
       <c r="B1" s="5" t="n"/>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
         <is>
           <t>Название и цены</t>
         </is>
@@ -4841,39 +4854,39 @@
       <c r="E1" s="5" t="n"/>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>Информация о товаре
 Блок можно не заполнять, если товар продается на Ozon и вы заполнили поле "Ozon ID"</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="18" t="inlineStr">
         <is>
           <t>Дополнительная информация о товаре
 Блок можно не заполнять, если товар продается на Ozon и вы заполнили либо поле Ozon ID, либо блок "Информация о товаре"</t>
         </is>
       </c>
-      <c r="R1" s="18" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>Одинаковые характеристики
 Для всех вариантов товара, которые вы хотите объединить на одной карточке, укажите одинаковые значения в этих полях</t>
         </is>
       </c>
-      <c r="T1" s="19" t="n"/>
-      <c r="U1" s="16" t="inlineStr">
+      <c r="T1" s="21" t="n"/>
+      <c r="U1" s="18" t="inlineStr">
         <is>
           <t>Характеристики вариантов
 Вы можете заполнить эти поля как одинаковыми значениями (если в этой характеристике вариант не отличается от других) или разными (если отличается)</t>
         </is>
       </c>
-      <c r="W1" s="16" t="inlineStr">
+      <c r="W1" s="18" t="inlineStr">
         <is>
           <t>Характеристики
 Блок можно не заполнять, если товар продается на Ozon и вы заполнили либо поле Ozon ID, либо блок "Информация о товаре"</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" s="11">
+    <row r="2" ht="28.5" customHeight="1" s="13">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>№</t>
@@ -5095,7 +5108,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="41.25" customHeight="1" s="11">
+    <row r="3" ht="41.25" customHeight="1" s="13">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -5235,433 +5248,319 @@
       <c r="AQ3" s="2" t="n"/>
       <c r="AR3" s="2" t="n"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Туалетная вода мужская 100мл, Parfum Library Iron Heart</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">861  </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 499 </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>829002092</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N4" s="6" t="inlineStr">
+        <is>
+          <t>https://ir.ozone.ru/s3/multimedia-m/wc1000/6510540970.jpg</t>
+        </is>
+      </c>
+      <c r="O4" s="6" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Vinci</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Взрослая</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Туалетная вода для мужчин. Семейство ароматов: цитрусовые фужерные. Верхние ноты: лимон, розмарин, нероли, ананас. Ноты сердца: жасмин, цикламен, кориандр. Ноты базы: мускус, дубовый мох, кедр, сандал. Философия аромата: Chrome Azzaro (Azzaro)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Vinci;Цитрусовый; Фужерный;ALCOHOL DENAT. (79% VOL.);AQUA (WATER);PARFUM (FRAGRANCE);LINALOOL;LIMONENE;COUMARIN;BENZYL BENZOATE. Соответствует требованиям о безопасности ТР ТС 009/2011;Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Цитрусовый, Фужерный</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>ALCOHOL DENAT. (79% VOL.);AQUA (WATER);PARFUM (FRAGRANCE);LINALOOL;LIMONENE;COUMARIN;BENZYL BENZOATE. Соответствует требованиям о безопасности ТР ТС 009/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Туалетная вода мужская "Business style", мужская туалетная вода, мужской парфюм, парфюм, парфюмерия, туалетная вода, духи мужские, подарок мужу, 100 мл.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">316  </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">546 </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>154369096</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://ir.ozone.ru/s3/multimedia-3/wc1000/6387340023.jpg</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Merle Blanc</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Туалетная вода</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Взрослая</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Это аромат для мужчин, принадлежит к группе ароматов восточные древесные.
+Верхние ноты: Махагони, Кориандр, Имбирь, Лаванда, Мандарин, Перец и Кардамон;
+ноты сердца: Гвоздика, Сандал, Жасмин, Белый кедр и Роза;
+ноты базы: Кожа, Амбра, Пачули, Мускус, Ваниль, Ветивер, Ладан и Табак.
+Современная парфюмерия поражает своим разнообразием, не трудно сделать так, чтобы желаемое стало действительным. При правильном подходе к выбору аромата усилия будут вознаграждены.
+Некоторые длительный период не меняют свой привычный парфюм, а выбор нового становится сложной или даже нерешенной задачей. Подарить всплеск положительных эмоций, добавить радость никогда не помешает. Мы поможем сделать выбор нового аромата, который сегодня имеются в большом ассортименте в нашем парфюмерном магазине.
+Но, еще приятнее, когда любимая женщина сделает подарок для своего мужчины в виде парфюма, зная, какие мужские духи самые популярные, которые обязательно освежат образ, придадут ему новизны.
+Аромат по мотивам GUCCI pour Homme II Flanker.</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Merle Blanc;Восточный; Древесный;парфюмерная композиция;этиловый спирт;вода;Туалетная вода</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Восточный, Древесный</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>парфюмерная композиция;этиловый спирт;вода</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Red Label CROSS INSAIDER Туалетная вода 100 мл</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t xml:space="preserve">281  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
+          <t xml:space="preserve">1 446 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>724581115</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Туалетная вода</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
+          <t>https://ir.ozone.ru/s3/multimedia-5/wc1000/6420398357.jpg</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Red Label</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Туалетная вода</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Взрослая</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Создателям аромата удалось передать энергетику смелости, сексуальности и очарования. Водный древесный парфюм освежает и согревает одновременно, представляя собой потрясающий контраст красоты и чувственности. Испанский модный дом дарит мужчинам невероятный шарм и силу. Парфюмерная композиция сверкает энергетикой силы, отваги, мужественности и активности. Аромат CROSS INSAIDER придется по вкусу спортсменам или молодым людям, живущим в ритме большого города, энергичным и активным мужчинам, которые никогда не останавливаются на достигнутом, не знают горечи поражений и вызывают особое уважение у женщин. Обладатели этого восторженного интенсивного букета получают эмоциональный и пикантный аромат, который переливается гранями чувственности, сексуальности, мужественности и силы.
+Группа ароматов: водяные , древесные
+Верхние ноты: грейпфрут , мандарин , морские ноты
+Ноты сердца: жасмин , лавр
+Базовые ноты: дубовый мох , пачули , серая амбра , гваяк
+Вся парфюмерия Delta parfum изготавливается на основе оригинальных Немецких (Drom Fragrances) композиций с соблюдением всех необходимых производственных процессов и норм качества, исключительно в заводских условиях, имеет необходимые сертификаты качества. Строгое соблюдение технологий на наших заводах с многолетней историей успешного развития- гарантирует высочайшее качество изготовления парфюмерии, а применение исключительно оригинальных Европейских ароматических композиций- позволит Вам ощутить уже известные, знакомые ароматы, но по значительно более низкой цене.</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Red Label;Древесный; Акватический;Denaturated ethyl alcohol;Aqua;Fragrances;Туалетная вода</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Древесный, Акватический</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>Россия, Франция</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dilis Unique Sunny Туалетная вода 100 мл</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 088  </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 690 </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>215973958</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Туалетная вода</t>
-        </is>
-      </c>
+          <t>Denaturated ethyl alcohol;Aqua;Fragrances</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="115.2" customHeight="1" s="13">
+      <c r="AL7" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5754,19 +5653,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16" customWidth="1" style="17" min="1" max="1"/>
-    <col width="27" customWidth="1" style="11" min="2" max="2"/>
+    <col width="16" customWidth="1" style="19" min="1" max="1"/>
+    <col width="27" customWidth="1" style="13" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.5" customHeight="1" s="11">
-      <c r="A1" s="16" t="n"/>
-      <c r="B1" s="16" t="inlineStr">
+    <row r="1" ht="61.5" customHeight="1" s="13">
+      <c r="A1" s="18" t="n"/>
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Озон.Видеообложка</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" s="11">
+    <row r="2" ht="28.5" customHeight="1" s="13">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Артикул*</t>
@@ -5778,7 +5677,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="41.25" customHeight="1" s="11">
+    <row r="3" ht="41.25" customHeight="1" s="13">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Обязательное поле</t>
@@ -5812,19 +5711,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16" customWidth="1" style="17" min="1" max="1"/>
-    <col width="27" customWidth="1" style="11" min="2" max="4"/>
+    <col width="16" customWidth="1" style="19" min="1" max="1"/>
+    <col width="27" customWidth="1" style="13" min="2" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.5" customHeight="1" s="11">
-      <c r="A1" s="16" t="n"/>
-      <c r="B1" s="16" t="inlineStr">
+    <row r="1" ht="61.5" customHeight="1" s="13">
+      <c r="A1" s="18" t="n"/>
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Озон.Видео</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" s="11">
+    <row r="2" ht="28.5" customHeight="1" s="13">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Артикул*</t>
@@ -5846,7 +5745,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="41.25" customHeight="1" s="11">
+    <row r="3" ht="41.25" customHeight="1" s="13">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Обязательное поле</t>
@@ -5882,19 +5781,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16" customWidth="1" style="17" min="1" max="1"/>
-    <col width="27" customWidth="1" style="11" min="2" max="3"/>
+    <col width="16" customWidth="1" style="19" min="1" max="1"/>
+    <col width="27" customWidth="1" style="13" min="2" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.5" customHeight="1" s="11">
-      <c r="A1" s="16" t="n"/>
-      <c r="B1" s="16" t="inlineStr">
+    <row r="1" ht="61.5" customHeight="1" s="13">
+      <c r="A1" s="18" t="n"/>
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Документация PDF</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" s="11">
+    <row r="2" ht="28.5" customHeight="1" s="13">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Артикул*</t>
@@ -5911,7 +5810,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="41.25" customHeight="1" s="11">
+    <row r="3" ht="41.25" customHeight="1" s="13">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Обязательное поле</t>
